--- a/lda_visualisation/lda_visualisation!lda_gensim_politics_find_nb_topics.xlsx
+++ b/lda_visualisation/lda_visualisation!lda_gensim_politics_find_nb_topics.xlsx
@@ -443,7 +443,7 @@
         <v>0.506512</v>
       </c>
       <c r="C6">
-        <v>-21.913242</v>
+        <v>-21.913243</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -487,7 +487,7 @@
         <v>0.438333</v>
       </c>
       <c r="C10">
-        <v>-8.669048</v>
+        <v>-8.669047000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>0.420856</v>
       </c>
       <c r="C11">
-        <v>-8.206386999999999</v>
+        <v>-8.206386</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>0.408199</v>
       </c>
       <c r="C12">
-        <v>-7.660023</v>
+        <v>-7.660022</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>0.39212</v>
       </c>
       <c r="C13">
-        <v>-7.812007</v>
+        <v>-7.812006</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -542,7 +542,7 @@
         <v>0.272589</v>
       </c>
       <c r="C15">
-        <v>-7.351689</v>
+        <v>-7.351687</v>
       </c>
     </row>
     <row r="16" spans="1:3">
